--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
   </si>
@@ -23,6 +23,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -39,6 +44,69 @@
   </si>
   <si>
     <t>3号</t>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <t>7号</t>
+  </si>
+  <si>
+    <t>8号</t>
+  </si>
+  <si>
+    <t>9号</t>
+  </si>
+  <si>
+    <t>10号</t>
+  </si>
+  <si>
+    <t>11号</t>
+  </si>
+  <si>
+    <t>12号</t>
+  </si>
+  <si>
+    <t>13号</t>
+  </si>
+  <si>
+    <t>14号</t>
+  </si>
+  <si>
+    <t>15号</t>
+  </si>
+  <si>
+    <t>16号</t>
+  </si>
+  <si>
+    <t>17号</t>
+  </si>
+  <si>
+    <t>18号</t>
+  </si>
+  <si>
+    <t>19号</t>
+  </si>
+  <si>
+    <t>20号</t>
+  </si>
+  <si>
+    <t>21号</t>
+  </si>
+  <si>
+    <t>22号</t>
+  </si>
+  <si>
+    <t>23号</t>
+  </si>
+  <si>
+    <t>24号</t>
   </si>
 </sst>
 </file>
@@ -1013,13 +1081,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7794871794872" style="1"/>
   </cols>
@@ -1060,6 +1128,174 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
